--- a/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprint-Backlog-Burndown-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwellhouck/Documents/Software Engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwellhouck/Documents/Software Engineering/group5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D2F49FC-CBF1-9F40-9ACB-B88838FA8C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE1892A-C99A-5948-A669-9C392D5E513B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>User Story #1</t>
   </si>
@@ -111,6 +111,51 @@
   </si>
   <si>
     <t>AGILE SPRINT BACKLOG WITH BURNDOWN CHART</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>JavaDoc</t>
+  </si>
+  <si>
+    <t>Modeling the Neighborhood</t>
+  </si>
+  <si>
+    <t>Street Class</t>
+  </si>
+  <si>
+    <t>Neighborhood Class</t>
+  </si>
+  <si>
+    <t>House Class</t>
+  </si>
+  <si>
+    <t>Neighborhood Gui</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>100 Random Addresses</t>
+  </si>
+  <si>
+    <t>Create Code</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Davin</t>
+  </si>
+  <si>
+    <t>Kyle</t>
   </si>
 </sst>
 </file>
@@ -385,28 +430,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,7 +1195,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1301,11 +1346,9 @@
     </row>
     <row r="4" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1335,19 +1378,21 @@
     </row>
     <row r="5" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
@@ -1356,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -1383,34 +1428,36 @@
     </row>
     <row r="6" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1436,30 +1483,14 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>3</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>6</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1484,30 +1515,14 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-      <c r="I8" s="9">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1527,11 +1542,9 @@
     </row>
     <row r="9" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1561,32 +1574,34 @@
     </row>
     <row r="10" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="9">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="9">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1607,7 +1622,7 @@
     </row>
     <row r="11" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1616,23 +1631,23 @@
         <v>3</v>
       </c>
       <c r="G11" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1653,32 +1668,32 @@
     </row>
     <row r="12" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1704,28 +1719,14 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9">
-        <v>9</v>
-      </c>
-      <c r="I13" s="9">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>1</v>
-      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1745,11 +1746,9 @@
     </row>
     <row r="14" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1779,32 +1778,34 @@
     </row>
     <row r="15" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15" s="9">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1830,28 +1831,14 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9">
-        <v>3</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>3</v>
-      </c>
-      <c r="I16" s="9">
-        <v>3</v>
-      </c>
-      <c r="J16" s="9">
-        <v>3</v>
-      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1876,28 +1863,14 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1922,28 +1895,14 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>3</v>
-      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1963,11 +1922,9 @@
     </row>
     <row r="19" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1997,29 +1954,31 @@
     </row>
     <row r="20" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G20" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="I20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="9">
         <v>0</v>
@@ -2048,28 +2007,14 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9">
-        <v>6</v>
-      </c>
-      <c r="G21" s="9">
-        <v>6</v>
-      </c>
-      <c r="H21" s="9">
-        <v>3</v>
-      </c>
-      <c r="I21" s="9">
-        <v>3</v>
-      </c>
-      <c r="J21" s="9">
-        <v>3</v>
-      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="9">
-        <v>1</v>
-      </c>
-      <c r="M21" s="9">
-        <v>1</v>
-      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2094,28 +2039,14 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9">
-        <v>2</v>
-      </c>
-      <c r="H22" s="9">
-        <v>8</v>
-      </c>
-      <c r="I22" s="9">
-        <v>8</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>1</v>
-      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2140,28 +2071,14 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2183,9 +2100,7 @@
       <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="7">
-        <v>3</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2220,28 +2135,14 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9">
-        <v>2</v>
-      </c>
-      <c r="G25" s="9">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1</v>
-      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2266,28 +2167,14 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9">
-        <v>6</v>
-      </c>
-      <c r="G26" s="9">
-        <v>6</v>
-      </c>
-      <c r="H26" s="9">
-        <v>6</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="9">
-        <v>3</v>
-      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9">
-        <v>9</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2312,28 +2199,14 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9">
-        <v>9</v>
-      </c>
-      <c r="G27" s="9">
-        <v>9</v>
-      </c>
-      <c r="H27" s="9">
-        <v>9</v>
-      </c>
-      <c r="I27" s="9">
-        <v>4</v>
-      </c>
-      <c r="J27" s="9">
-        <v>3</v>
-      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9">
-        <v>3</v>
-      </c>
-      <c r="M27" s="9">
-        <v>3</v>
-      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2358,28 +2231,14 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>1</v>
-      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -2406,35 +2265,35 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5">
         <f>SUM(F4:F28)</f>
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G29" s="5">
         <f>SUM(G5:G28)</f>
-        <v>60</v>
+        <v>20.5</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ref="H29:M29" si="0">SUM(H4:H28)</f>
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>

--- a/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprint-Backlog-Burndown-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwellhouck/Documents/Software Engineering/group5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE1892A-C99A-5948-A669-9C392D5E513B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D363218-BCB8-164B-92D4-0F0AB82DE7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>User Story #1</t>
   </si>
@@ -125,15 +125,6 @@
     <t>Modeling the Neighborhood</t>
   </si>
   <si>
-    <t>Street Class</t>
-  </si>
-  <si>
-    <t>Neighborhood Class</t>
-  </si>
-  <si>
-    <t>House Class</t>
-  </si>
-  <si>
     <t>Neighborhood Gui</t>
   </si>
   <si>
@@ -156,6 +147,9 @@
   </si>
   <si>
     <t>Kyle</t>
+  </si>
+  <si>
+    <t>GUI Modeling</t>
   </si>
 </sst>
 </file>
@@ -430,28 +424,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,8 +1188,8 @@
   <dimension ref="B1:AC125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1382,7 +1376,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
@@ -1432,7 +1426,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
@@ -1574,34 +1568,34 @@
     </row>
     <row r="10" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
         <v>4</v>
       </c>
       <c r="G10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1622,33 +1616,19 @@
     </row>
     <row r="11" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3</v>
-      </c>
-      <c r="I11" s="9">
-        <v>3</v>
-      </c>
-      <c r="J11" s="9">
-        <v>3</v>
-      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="9">
-        <v>3</v>
-      </c>
-      <c r="M11" s="9">
-        <v>3</v>
-      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1668,33 +1648,19 @@
     </row>
     <row r="12" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>3</v>
-      </c>
-      <c r="G12" s="9">
-        <v>3</v>
-      </c>
-      <c r="H12" s="9">
-        <v>3</v>
-      </c>
-      <c r="I12" s="9">
-        <v>3</v>
-      </c>
-      <c r="J12" s="9">
-        <v>3</v>
-      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9">
-        <v>3</v>
-      </c>
-      <c r="M12" s="9">
-        <v>3</v>
-      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1746,7 +1712,7 @@
     </row>
     <row r="14" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -1778,11 +1744,11 @@
     </row>
     <row r="15" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9">
@@ -1922,7 +1888,7 @@
     </row>
     <row r="19" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -1954,11 +1920,11 @@
     </row>
     <row r="20" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9">
@@ -2265,23 +2231,23 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5">
         <f>SUM(F4:F28)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G29" s="5">
         <f>SUM(G5:G28)</f>
-        <v>20.5</v>
+        <v>13.5</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ref="H29:M29" si="0">SUM(H4:H28)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
@@ -2289,11 +2255,11 @@
       </c>
       <c r="L29" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
